--- a/biology/Zoologie/Chaerephon/Chaerephon.xlsx
+++ b/biology/Zoologie/Chaerephon/Chaerephon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaerephon, appelé communément Phyllanthes[1], est un genre de chauves-souris de la famille des Molossidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaerephon, appelé communément Phyllanthes, est un genre de chauves-souris de la famille des Molossidae.
 Le nom de genre Chaerephon fait référence à Chéréphon, l'ami de Socrate, qui,  dans la comédie "Ὄρνιθες" (les oiseaux, 1564,II) d'Aristophane, est décrit comme "Chaerephon la chauve-souris" ( Χαιρεφῶν ἡ  νυκτερίς).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (17 octobre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (17 octobre 2019) :
 Chaerephon aloysiisabaudiae (Festa, 1907)
 Chaerephon ansorgei (Thomas, 1913)
 Chaerephon atsinanana Goodman, Buccas, Naidoo, Ratrimomanarivo, Taylor &amp; Lamb, 2010
@@ -563,9 +577,11 @@
           <t>Évolution du taxon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une publication de 2007 montre que les spécimens provenant des Seychelles occidentales (Aldabra and Amirantes) sont en fait plus petits et formeraient une espèce distincte endémique des Seychelles. Les auteurs demandent le rétablissement du taxon Chaerephon pusillus Miller, 1902, devenu un synonyme de Chaerephon pumilus[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une publication de 2007 montre que les spécimens provenant des Seychelles occidentales (Aldabra and Amirantes) sont en fait plus petits et formeraient une espèce distincte endémique des Seychelles. Les auteurs demandent le rétablissement du taxon Chaerephon pusillus Miller, 1902, devenu un synonyme de Chaerephon pumilus.
 </t>
         </is>
       </c>
